--- a/service-system/src/main/resources/static/平整度-4车道.xlsx
+++ b/service-system/src/main/resources/static/平整度-4车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9AB8A-6C49-43EB-B9A6-C32C7A0A40C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881292E0-30DB-407D-8DEC-D69B38F7D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="混凝土隧道" sheetId="26" r:id="rId1"/>
@@ -1475,29 +1475,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,6 +1500,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,11 +1866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -1887,210 +1887,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -2140,13 +2140,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2173,13 +2173,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -2206,13 +2206,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -2239,8 +2239,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -2276,15 +2276,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -2311,15 +2311,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -2346,15 +2346,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -2381,15 +2381,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -2416,15 +2416,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -2451,15 +2451,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -2486,15 +2486,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2521,13 +2521,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -2554,13 +2554,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -2587,8 +2587,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2597,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -2624,15 +2624,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -2659,15 +2659,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -2694,15 +2694,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -2729,15 +2729,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -2764,15 +2764,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -2799,15 +2799,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -2834,15 +2834,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2869,13 +2869,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -2902,13 +2902,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -2935,8 +2935,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -2972,15 +2972,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -3007,15 +3007,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -3042,15 +3042,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -3077,15 +3077,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -3112,15 +3112,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -3147,15 +3147,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -3182,10 +3182,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -3206,6 +3206,7 @@
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="V29:W29"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V16:W16"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:Y1"/>
@@ -3217,7 +3218,6 @@
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V16:W16"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
@@ -3235,6 +3235,9 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="V19:W19"/>
@@ -3246,18 +3249,14 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3267,11 +3266,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -3288,210 +3287,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -3541,13 +3540,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -3574,13 +3573,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -3607,13 +3606,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -3640,8 +3639,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -3650,7 +3649,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -3677,15 +3676,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -3712,15 +3711,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -3747,15 +3746,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -3782,15 +3781,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -3817,15 +3816,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -3852,15 +3851,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -3887,15 +3886,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3922,13 +3921,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -3955,13 +3954,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -3988,8 +3987,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3997,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -4025,15 +4024,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -4060,15 +4059,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -4095,15 +4094,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -4130,15 +4129,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -4165,15 +4164,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -4200,15 +4199,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -4235,15 +4234,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -4270,13 +4269,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -4303,13 +4302,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -4336,8 +4335,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -4346,7 +4345,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -4373,15 +4372,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -4408,15 +4407,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -4443,15 +4442,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -4478,15 +4477,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -4513,15 +4512,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -4548,15 +4547,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -4583,10 +4582,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -4656,9 +4655,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4668,11 +4666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -4689,210 +4687,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -4942,13 +4940,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -4975,13 +4973,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -5008,13 +5006,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -5041,8 +5039,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -5051,7 +5049,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -5078,15 +5076,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -5113,15 +5111,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -5148,15 +5146,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -5183,15 +5181,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -5218,15 +5216,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -5253,15 +5251,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -5288,15 +5286,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -5323,13 +5321,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -5356,13 +5354,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -5389,8 +5387,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -5399,7 +5397,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -5426,15 +5424,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -5461,15 +5459,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -5496,15 +5494,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -5531,15 +5529,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -5566,15 +5564,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -5601,15 +5599,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -5636,15 +5634,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -5671,13 +5669,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -5704,13 +5702,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -5737,8 +5735,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -5747,7 +5745,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -5774,15 +5772,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -5809,15 +5807,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -5844,15 +5842,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -5879,15 +5877,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -5914,15 +5912,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -5949,15 +5947,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -5984,10 +5982,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -6057,9 +6055,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6070,10 +6067,10 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -6090,210 +6087,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -6343,13 +6340,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -6376,13 +6373,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -6409,13 +6406,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -6442,8 +6439,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -6452,7 +6449,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -6479,15 +6476,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -6514,15 +6511,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -6549,15 +6546,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -6584,15 +6581,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -6619,15 +6616,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -6654,15 +6651,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -6689,15 +6686,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -6724,13 +6721,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -6757,13 +6754,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -6790,8 +6787,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -6800,7 +6797,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -6827,15 +6824,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -6862,15 +6859,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -6897,15 +6894,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -6932,15 +6929,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -6967,15 +6964,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -7002,15 +6999,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -7037,15 +7034,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -7072,13 +7069,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -7105,13 +7102,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -7138,8 +7135,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -7148,7 +7145,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -7175,15 +7172,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -7210,15 +7207,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -7245,15 +7242,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -7280,15 +7277,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -7315,15 +7312,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -7350,15 +7347,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -7385,10 +7382,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -7458,9 +7455,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7470,11 +7466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -7491,210 +7487,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -7744,13 +7740,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -7777,13 +7773,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -7810,13 +7806,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -7843,8 +7839,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -7853,7 +7849,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -7880,15 +7876,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -7915,15 +7911,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -7950,15 +7946,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -7985,15 +7981,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -8020,15 +8016,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -8055,15 +8051,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -8090,15 +8086,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -8125,13 +8121,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -8158,13 +8154,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -8191,8 +8187,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -8201,7 +8197,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -8228,15 +8224,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -8263,15 +8259,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -8298,15 +8294,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -8333,15 +8329,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -8368,15 +8364,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -8403,15 +8399,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -8438,15 +8434,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -8473,13 +8469,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -8506,13 +8502,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -8539,8 +8535,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -8549,7 +8545,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -8576,15 +8572,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -8611,15 +8607,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -8646,15 +8642,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -8681,15 +8677,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -8716,15 +8712,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -8751,15 +8747,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -8786,10 +8782,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -8859,9 +8855,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -8871,11 +8866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -8892,210 +8887,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
     </row>
     <row r="2" spans="1:25" ht="21" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -9145,13 +9140,13 @@
       <c r="U7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -9178,13 +9173,13 @@
       <c r="S8" s="16"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -9211,13 +9206,13 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -9244,8 +9239,8 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="12" t="s">
         <v>31</v>
       </c>
@@ -9254,7 +9249,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -9281,15 +9276,15 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -9316,15 +9311,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="17"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -9351,15 +9346,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="17"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -9386,15 +9381,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="17"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -9421,15 +9416,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="17" t="s">
+      <c r="V15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="17"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -9456,15 +9451,15 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="17"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -9491,15 +9486,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="17"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -9526,13 +9521,13 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -9559,13 +9554,13 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -9592,8 +9587,8 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="12" t="s">
         <v>31</v>
       </c>
@@ -9602,7 +9597,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -9629,15 +9624,15 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="17" t="s">
+      <c r="V21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="17"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -9664,15 +9659,15 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="17" t="s">
+      <c r="V22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="17"/>
+      <c r="W22" s="19"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -9699,15 +9694,15 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W23" s="17"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -9734,15 +9729,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="17" t="s">
+      <c r="V24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="17"/>
+      <c r="W24" s="19"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:25" ht="18" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -9769,15 +9764,15 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -9804,15 +9799,15 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="17"/>
+      <c r="W26" s="19"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -9839,15 +9834,15 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="17" t="s">
+      <c r="V27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="17"/>
+      <c r="W27" s="19"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -9874,13 +9869,13 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -9907,13 +9902,13 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -9940,8 +9935,8 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
       <c r="X30" s="12" t="s">
         <v>31</v>
       </c>
@@ -9950,7 +9945,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -9977,15 +9972,15 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="17"/>
+      <c r="W31" s="19"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -10012,15 +10007,15 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="17"/>
+      <c r="W32" s="19"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="18" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -10047,15 +10042,15 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="17" t="s">
+      <c r="V33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W33" s="17"/>
+      <c r="W33" s="19"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -10082,15 +10077,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="17" t="s">
+      <c r="V34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W34" s="17"/>
+      <c r="W34" s="19"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -10117,15 +10112,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W35" s="17"/>
+      <c r="W35" s="19"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -10152,15 +10147,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="17" t="s">
+      <c r="V36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="17"/>
+      <c r="W36" s="19"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -10187,10 +10182,10 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="17" t="s">
+      <c r="V37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="17"/>
+      <c r="W37" s="19"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
     </row>
@@ -10260,9 +10255,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
